--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.022020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.022020.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3469,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4057,12 +4057,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6883,12 +6883,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6925,12 +6925,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7647,12 +7647,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8369,12 +8369,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8537,12 +8537,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8999,12 +8999,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9713,12 +9713,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10007,12 +10007,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10343,12 +10343,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10469,12 +10469,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10847,12 +10847,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11771,12 +11771,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12023,12 +12023,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13203,12 +13203,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13371,12 +13371,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13623,12 +13623,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
